--- a/public/template_supplier.xlsx
+++ b/public/template_supplier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69142452-1553-4464-BA5B-F181A6D19CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332FAC15-A3D2-4901-9643-3CF6EEEA29F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data supplier" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,13 @@
     <t>Alamat supplier</t>
   </si>
   <si>
-    <t>SUP5</t>
-  </si>
-  <si>
-    <t>Supplier E</t>
-  </si>
-  <si>
-    <t>Jl. Melati</t>
+    <t>SUP6</t>
+  </si>
+  <si>
+    <t>Supplier F</t>
+  </si>
+  <si>
+    <t>Jl. Bunga</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
